--- a/medicine/Mort/Terrorisme_en_1988/Terrorisme_en_1988.xlsx
+++ b/medicine/Mort/Terrorisme_en_1988/Terrorisme_en_1988.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,26 +520,230 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-16 mars, Irlande du Nord : au cimetière de Milltown à Belfast, lors de l'enterrement de 3 militants de l'IRA tués par l'armée britannique à Gibraltar, un loyaliste tire sur la foule et lance une grenade, faisant trois morts et plus de cinquante blessés[1].
-Avril
-14 avril, Italie : une voiture piégée explose près du United Service Organizations, le cercle de la marine américaine à Naples. L'attentat fait cinq morts. Le terroriste japonais Junzō Okudaira, membre de l'Armée rouge japonaise, est condamné par contumace en 1993 pour cet attentat[2],[3].
-Mai
-Juin
-15 juin, Irlande du Nord : un attentat de l'IRA contre des militaires britanniques à Lisburn fait cinq morts et dix blessés[4].
-Juillet
-11 juillet, Grèce : un commando palestinien de quatre hommes, appartenant au groupe Abou Nidal, ouvrent le feu à bord du City of Poros, un bateau de croisière grec. L'attaque fait neuf morts et quatre-vingts blessés[5],[6]. Trois des quatre terroristes seront jugés par contumace en février 2012[7].
-Août
-20 août, Irlande du Nord : un attentat de l'IRA contre un car de militaires britanniques dans le comté de Tyrone fait huit morts et vingt-huit blessés[réf. souhaitée].
-Septembre
-Octobre
-18 octobre, Mauritanie : un véhicule de chercheurs océanographes français saute sur une mine mouillée à l'occasion d'un conflit entre la Mauritanie et le Maroc. Trois des quatre scientifiques sont tués, ainsi que leur chauffeur. Le dernier chercheur est grièvement blessé[8].
-Novembre
-Décembre
-3 décembre, Pérou : cinq personnes sont assassinées à l'arme blanche par un groupe se réclamant du Sentier lumineux, le Parti communiste du Pérou[9].
-21 décembre, Royaume-Uni : un Boeing 747 de la compagnie américaine Pan Am, qui assure la liaison Londres-New York, explose au-dessus du village écossais de Lockerbie. Les deux cent cinquante-neuf passagers et membres d'équipage sont tués dans l'explosion et onze habitants de Lockerbie sont tués par la chute des morceaux de l'appareil[10].</t>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 mars, Irlande du Nord : au cimetière de Milltown à Belfast, lors de l'enterrement de 3 militants de l'IRA tués par l'armée britannique à Gibraltar, un loyaliste tire sur la foule et lance une grenade, faisant trois morts et plus de cinquante blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14 avril, Italie : une voiture piégée explose près du United Service Organizations, le cercle de la marine américaine à Naples. L'attentat fait cinq morts. Le terroriste japonais Junzō Okudaira, membre de l'Armée rouge japonaise, est condamné par contumace en 1993 pour cet attentat,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 juin, Irlande du Nord : un attentat de l'IRA contre des militaires britanniques à Lisburn fait cinq morts et dix blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11 juillet, Grèce : un commando palestinien de quatre hommes, appartenant au groupe Abou Nidal, ouvrent le feu à bord du City of Poros, un bateau de croisière grec. L'attaque fait neuf morts et quatre-vingts blessés,. Trois des quatre terroristes seront jugés par contumace en février 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>20 août, Irlande du Nord : un attentat de l'IRA contre un car de militaires britanniques dans le comté de Tyrone fait huit morts et vingt-huit blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>18 octobre, Mauritanie : un véhicule de chercheurs océanographes français saute sur une mine mouillée à l'occasion d'un conflit entre la Mauritanie et le Maroc. Trois des quatre scientifiques sont tués, ainsi que leur chauffeur. Le dernier chercheur est grièvement blessé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1988</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 décembre, Pérou : cinq personnes sont assassinées à l'arme blanche par un groupe se réclamant du Sentier lumineux, le Parti communiste du Pérou.
+21 décembre, Royaume-Uni : un Boeing 747 de la compagnie américaine Pan Am, qui assure la liaison Londres-New York, explose au-dessus du village écossais de Lockerbie. Les deux cent cinquante-neuf passagers et membres d'équipage sont tués dans l'explosion et onze habitants de Lockerbie sont tués par la chute des morceaux de l'appareil.</t>
         </is>
       </c>
     </row>
